--- a/recoBeer.xlsx
+++ b/recoBeer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atraccogroup-my.sharepoint.com/personal/richard_sanborn_recopart_se/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="8_{8D3450A8-B5BA-4E60-9BFB-78C41A40C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C657AE2-F2AA-4E2B-A9C6-290C877B0F89}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{8D3450A8-B5BA-4E60-9BFB-78C41A40C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9643BF3-4E32-4897-97B1-06B69C84BE4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{269B9198-3EA4-4DE5-A82B-0A872A06849E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{269B9198-3EA4-4DE5-A82B-0A872A06849E}"/>
   </bookViews>
   <sheets>
     <sheet name="Beers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="179">
   <si>
     <t>Testade</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Pris</t>
   </si>
   <si>
-    <t>APK</t>
-  </si>
-  <si>
     <t>Volym (ml)</t>
   </si>
   <si>
@@ -396,15 +393,6 @@
     <t>Bitburger Braugruppe</t>
   </si>
   <si>
-    <t>https://www.systembolaget.se/produkt/ol/sol-152003/</t>
-  </si>
-  <si>
-    <t>https://www.systembolaget.se/produkt/ol/negra-modelo-162803/</t>
-  </si>
-  <si>
-    <t>https://www.systembolaget.se/produkt/ol/aecht-schlenkerla-1086701/</t>
-  </si>
-  <si>
     <t>Sol</t>
   </si>
   <si>
@@ -427,6 +415,162 @@
   </si>
   <si>
     <t>Schlenkerla</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>7,75</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>2,95</t>
+  </si>
+  <si>
+    <t>2,94</t>
+  </si>
+  <si>
+    <t>6,88</t>
+  </si>
+  <si>
+    <t>2,75</t>
+  </si>
+  <si>
+    <t>4,92</t>
+  </si>
+  <si>
+    <t>4,58</t>
+  </si>
+  <si>
+    <t>4,15</t>
+  </si>
+  <si>
+    <t>4,89</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,44</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t>19,9</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>https://www,systembolaget,se/produkt/ol/sol-152003/</t>
+  </si>
+  <si>
+    <t>https://www,systembolaget,se/produkt/ol/negra-modelo-162803/</t>
+  </si>
+  <si>
+    <t>https://www,systembolaget,se/produkt/ol/aecht-schlenkerla-1086701/</t>
+  </si>
+  <si>
+    <t>6,17</t>
+  </si>
+  <si>
+    <t>24,7</t>
+  </si>
+  <si>
+    <t>5,08</t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>30,9</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>lett</t>
+  </si>
+  <si>
+    <t>polsk</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>mothership</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>JOHAN EU MED QUIZ OCH LETTISK ÖL</t>
   </si>
 </sst>
 </file>
@@ -559,13 +703,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -907,11 +1051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F3E68-7697-4FE2-8F6A-A1553C76AAD6}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -921,16 +1065,15 @@
     <col min="3" max="3" width="13.53125" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,48 +1087,45 @@
         <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="C2">
-        <v>5.2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <v>43735</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -995,123 +1135,123 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>43735</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5.9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>43735</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>5.5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>43735</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>4.7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <v>43735</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
+    <row r="7" spans="1:15">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6">
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>43798</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="H9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="2">
         <v>43798</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1121,37 +1261,37 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="H10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="2">
         <v>43798</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>5.2</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="6">
+      <c r="H11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>43798</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1161,172 +1301,172 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="2">
         <v>43798</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
+    <row r="13" spans="1:15">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>5.5</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="H14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="2">
         <v>43882</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
-        <v>5.2</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="H15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2">
         <v>43882</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P15" t="s">
+      <c r="O15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>5.5</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="H16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="2">
         <v>43882</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P16" t="s">
+      <c r="O16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>6.8</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="H17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="2">
         <v>43882</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>5.7</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="H18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="2">
         <v>43882</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="O19" s="5" t="s">
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="N19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>4.8</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="H20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="2">
         <v>44085</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1336,103 +1476,103 @@
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="6">
+      <c r="H21" s="6">
         <v>5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="I21" s="2">
         <v>44085</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>4.7</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="H22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="2">
         <v>44085</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
-        <v>8.5</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="H23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2">
         <v>44085</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
+    <row r="24" spans="1:15">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>5.3</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="H25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="2">
         <v>44182</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>6.3</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
         <v>53</v>
       </c>
-      <c r="I26">
-        <v>7.5</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="2">
         <v>44182</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1442,40 +1582,40 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="H27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="2">
         <v>44182</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
-        <v>6.5</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="I29">
-        <v>7.3</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="2">
         <v>44252</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1485,17 +1625,17 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="I30">
-        <v>2.95</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="2">
         <v>44252</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1505,40 +1645,40 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>71</v>
       </c>
-      <c r="I31">
-        <v>2.94</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="2">
         <v>44252</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="C32">
-        <v>6.5</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
         <v>77</v>
       </c>
-      <c r="I32">
-        <v>6.88</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="2">
         <v>44252</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1548,20 +1688,20 @@
       <c r="C34" s="4">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>70</v>
       </c>
-      <c r="I34">
-        <v>2.75</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="H34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="2">
         <v>44300</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1571,37 +1711,37 @@
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>82</v>
       </c>
-      <c r="I35">
-        <v>4.92</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="H35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="2">
         <v>44300</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
         <v>50</v>
       </c>
-      <c r="I36">
-        <v>4.58</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="2">
         <v>44300</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1611,40 +1751,40 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>90</v>
       </c>
-      <c r="I38">
-        <v>6.3</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="2">
         <v>44342</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39">
-        <v>5.9</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
         <v>89</v>
       </c>
-      <c r="I39">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="2">
         <v>44342</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1654,91 +1794,91 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>91</v>
       </c>
-      <c r="I40">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="J40" s="2">
+      <c r="H40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="2">
         <v>44342</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5">
+    <row r="42" spans="1:10" ht="28.5">
       <c r="A42" t="s">
         <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6.6</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I42">
-        <v>7.11</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="H42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="2">
         <v>44503</v>
       </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>4.5</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I43">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="J43" s="2">
+      <c r="H43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="2">
         <v>44503</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.5">
+    <row r="44" spans="1:10" ht="28.5">
       <c r="A44" t="s">
         <v>98</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>5.3</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I44">
-        <v>7.25</v>
-      </c>
-      <c r="J44" s="2">
+      <c r="H44" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="2">
         <v>44503</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.5">
+    <row r="46" spans="1:10" ht="28.5">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
@@ -1746,209 +1886,234 @@
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46">
-        <v>19.899999999999999</v>
+      <c r="D46" t="s">
+        <v>162</v>
       </c>
       <c r="E46">
         <v>330</v>
       </c>
-      <c r="F46">
-        <f>SUM((((C46*0.01)*E46)/D46))</f>
-        <v>1.4924623115577891</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46">
-        <v>6.17</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="2">
         <v>44551</v>
       </c>
-      <c r="K46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="28.5">
+      <c r="J46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.5">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
-        <v>7.5</v>
-      </c>
-      <c r="D47">
-        <v>14.9</v>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
       </c>
       <c r="E47">
         <v>500</v>
       </c>
-      <c r="F47" s="4">
-        <f>SUM((((C47*0.01)*E47)/D47))</f>
-        <v>2.5167785234899327</v>
-      </c>
-      <c r="G47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="8" t="s">
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.5">
+      <c r="A48" t="s">
         <v>111</v>
       </c>
-      <c r="I47">
-        <v>5.3</v>
-      </c>
-      <c r="J47" s="2">
-        <v>44551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="28.5">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>112</v>
       </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48">
-        <v>7.5</v>
-      </c>
-      <c r="D48">
-        <v>24.7</v>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
       </c>
       <c r="E48">
         <v>330</v>
       </c>
-      <c r="F48">
-        <f t="shared" ref="F48" si="0">SUM((((C48*0.01)*E48)/D48))</f>
-        <v>1.0020242914979758</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48">
-        <v>5.08</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="2">
         <v>44551</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.5">
+    <row r="50" spans="1:10" ht="28.5">
       <c r="A50" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50">
-        <v>4.5</v>
-      </c>
-      <c r="D50">
-        <v>14.9</v>
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
       </c>
       <c r="E50">
         <v>330</v>
       </c>
-      <c r="F50">
-        <v>0.99664429530201304</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="8" t="s">
+      <c r="F50" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I50">
-        <v>6.5</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="G50" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="2">
         <v>44651</v>
       </c>
-      <c r="K50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="28.5">
+      <c r="J50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51">
-        <v>5.4</v>
-      </c>
-      <c r="D51">
-        <v>18.5</v>
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
       </c>
       <c r="E51">
         <v>355</v>
       </c>
-      <c r="F51">
-        <v>1.0362162162162101</v>
-      </c>
-      <c r="G51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I51">
-        <v>5.3</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="2">
         <v>44651</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="42.75">
+    <row r="52" spans="1:10" ht="42.75">
       <c r="A52" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="C52">
-        <v>5.9</v>
-      </c>
-      <c r="D52">
-        <v>30.9</v>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
       </c>
       <c r="E52">
         <v>500</v>
       </c>
-      <c r="F52" s="5">
-        <f>SUM((E52/D52)*C52)/100</f>
-        <v>0.95469255663430441</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52">
-        <v>7.4</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="F52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="2">
         <v>44651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="2">
+        <v>44867</v>
+      </c>
+      <c r="J54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I56" s="2">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="2">
+        <v>44867</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H44" r:id="rId1" display="https://www.systembolaget.se/produkt/ol/nils-oscar-god-lager-eko-159314/" xr:uid="{ED3E9659-1F05-43CD-B4F3-C5C03A70A75F}"/>
-    <hyperlink ref="H43" r:id="rId2" display="https://www.systembolaget.se/produkt/ol/me-and-my-raz-3428803/" xr:uid="{4B32BFF6-F65A-40F9-A4BE-8C0185D03DDF}"/>
-    <hyperlink ref="H42" r:id="rId3" display="https://www.systembolaget.se/produkt/ol/salens-fjallbryggeri-3587603/" xr:uid="{40730B99-7768-4E89-91DA-B78CDC7BCF36}"/>
-    <hyperlink ref="H46" r:id="rId4" display="https://www.systembolaget.se/produkt/ol/craftwerk-1145703/" xr:uid="{560F1DF7-441A-4309-9104-2A5F9C7AB88A}"/>
-    <hyperlink ref="H47" r:id="rId5" display="https://www.systembolaget.se/produkt/ol/three-hearts-1122812/" xr:uid="{E2F0A1C8-E25A-40CC-ADD8-F672A43B9F25}"/>
-    <hyperlink ref="H48" r:id="rId6" display="https://www.systembolaget.se/produkt/ol/lump-of-coal-dark-holiday-1148503/" xr:uid="{BD2510EE-5D38-4955-9572-8B052CB1FB79}"/>
-    <hyperlink ref="H50" r:id="rId7" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Fsol-152003%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=U4cFEgnQ94G65SK0nUHeUq0T6NWtyaNqmOC5uVLI3s8%3D&amp;reserved=0" xr:uid="{2152F86F-6211-4958-8827-8E4A63E6EB95}"/>
-    <hyperlink ref="H51" r:id="rId8" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Fnegra-modelo-162803%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=sMnY3A%2BZ8jALdkrlT68SRRBblQr7V78zyJSkJAqdglI%3D&amp;reserved=0" xr:uid="{41580548-47A5-4A3D-8525-97D8A7FA4458}"/>
-    <hyperlink ref="H52" r:id="rId9" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Faecht-schlenkerla-1086701%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=mVIhKqmMKOGqXo0IsTmZE9gmHElAlkStNYJ1tzXO8As%3D&amp;reserved=0" xr:uid="{EA504C73-AC96-4DC8-8E12-8CB41499A1A8}"/>
+    <hyperlink ref="G44" r:id="rId1" display="https://www.systembolaget.se/produkt/ol/nils-oscar-god-lager-eko-159314/" xr:uid="{ED3E9659-1F05-43CD-B4F3-C5C03A70A75F}"/>
+    <hyperlink ref="G43" r:id="rId2" display="https://www.systembolaget.se/produkt/ol/me-and-my-raz-3428803/" xr:uid="{4B32BFF6-F65A-40F9-A4BE-8C0185D03DDF}"/>
+    <hyperlink ref="G42" r:id="rId3" display="https://www.systembolaget.se/produkt/ol/salens-fjallbryggeri-3587603/" xr:uid="{40730B99-7768-4E89-91DA-B78CDC7BCF36}"/>
+    <hyperlink ref="G46" r:id="rId4" display="https://www.systembolaget.se/produkt/ol/craftwerk-1145703/" xr:uid="{560F1DF7-441A-4309-9104-2A5F9C7AB88A}"/>
+    <hyperlink ref="G47" r:id="rId5" display="https://www.systembolaget.se/produkt/ol/three-hearts-1122812/" xr:uid="{E2F0A1C8-E25A-40CC-ADD8-F672A43B9F25}"/>
+    <hyperlink ref="G48" r:id="rId6" display="https://www.systembolaget.se/produkt/ol/lump-of-coal-dark-holiday-1148503/" xr:uid="{BD2510EE-5D38-4955-9572-8B052CB1FB79}"/>
+    <hyperlink ref="G50" r:id="rId7" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Fsol-152003%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=U4cFEgnQ94G65SK0nUHeUq0T6NWtyaNqmOC5uVLI3s8%3D&amp;reserved=0" xr:uid="{2152F86F-6211-4958-8827-8E4A63E6EB95}"/>
+    <hyperlink ref="G51" r:id="rId8" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Fnegra-modelo-162803%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=sMnY3A%2BZ8jALdkrlT68SRRBblQr7V78zyJSkJAqdglI%3D&amp;reserved=0" xr:uid="{41580548-47A5-4A3D-8525-97D8A7FA4458}"/>
+    <hyperlink ref="G52" r:id="rId9" display="https://eur02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.systembolaget.se%2Fprodukt%2Fol%2Faecht-schlenkerla-1086701%2F&amp;data=04%7C01%7Crichard.sanborn%40recopart.se%7Cb493d74084d64ecdf87208da0da16ebb%7Ccc6f54c6add54ca2a187c2aa5ea3564b%7C0%7C0%7C637837284249456646%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000&amp;sdata=mVIhKqmMKOGqXo0IsTmZE9gmHElAlkStNYJ1tzXO8As%3D&amp;reserved=0" xr:uid="{EA504C73-AC96-4DC8-8E12-8CB41499A1A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/recoBeer.xlsx
+++ b/recoBeer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atraccogroup-my.sharepoint.com/personal/richard_sanborn_recopart_se/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_PRIVATE\recobeer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{8D3450A8-B5BA-4E60-9BFB-78C41A40C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9643BF3-4E32-4897-97B1-06B69C84BE4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A324026-4F87-46B1-AD70-F06B0A9D05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{269B9198-3EA4-4DE5-A82B-0A872A06849E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
   <si>
     <t>Testade</t>
   </si>
@@ -555,22 +555,28 @@
     <t>7,4</t>
   </si>
   <si>
-    <t>lett</t>
-  </si>
-  <si>
-    <t>polsk</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>mothership</t>
-  </si>
-  <si>
     <t>7,0</t>
   </si>
   <si>
     <t>JOHAN EU MED QUIZ OCH LETTISK ÖL</t>
+  </si>
+  <si>
+    <t>Cesu Pilsener</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Einstök Icelandic white ale</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Einstok beer</t>
+  </si>
+  <si>
+    <t>polsk ?</t>
   </si>
 </sst>
 </file>
@@ -1053,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F3E68-7697-4FE2-8F6A-A1553C76AAD6}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2058,7 +2064,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
@@ -2067,12 +2082,12 @@
         <v>44867</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
@@ -2083,10 +2098,22 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56">
+        <v>330</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I56" s="2">
         <v>44867</v>
@@ -2094,7 +2121,16 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" t="s">
+        <v>47</v>
       </c>
       <c r="H57" t="s">
         <v>137</v>
@@ -2122,6 +2158,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100B85C6381789F9249BFC60A4F072453DA" ma:contentTypeVersion="11" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="9ad691c1251ff7cefcc8fba8383ba7fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2a7b830c-ecfb-4391-9c6f-f8eff3329e76" xmlns:ns4="111691a4-beab-46d0-be83-e9b1942a8e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7b4cbc58fd97ec489cfcc5f5448251f" ns3:_="" ns4:_="">
     <xsd:import namespace="2a7b830c-ecfb-4391-9c6f-f8eff3329e76"/>
@@ -2330,12 +2372,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2346,6 +2382,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5DFEC8-30AE-4FC3-ADFD-09223B600345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="111691a4-beab-46d0-be83-e9b1942a8e6f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2a7b830c-ecfb-4391-9c6f-f8eff3329e76"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2BEBE4-58E0-4CF2-9831-2E8A4C0B7FEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2364,23 +2417,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5DFEC8-30AE-4FC3-ADFD-09223B600345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="111691a4-beab-46d0-be83-e9b1942a8e6f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2a7b830c-ecfb-4391-9c6f-f8eff3329e76"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0192D3EB-C946-4768-9DFF-FE16388297A6}">
   <ds:schemaRefs>

--- a/recoBeer.xlsx
+++ b/recoBeer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_PRIVATE\recobeer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A324026-4F87-46B1-AD70-F06B0A9D05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103CB28-448E-40D9-9C90-87BDA4C452FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{269B9198-3EA4-4DE5-A82B-0A872A06849E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="194">
   <si>
     <t>Testade</t>
   </si>
@@ -577,6 +577,45 @@
   </si>
   <si>
     <t>polsk ?</t>
+  </si>
+  <si>
+    <t>The steam beer</t>
+  </si>
+  <si>
+    <t>KRILLES KVÄLL HOCKEY TURNERING VINNAREN FÅR PRIS</t>
+  </si>
+  <si>
+    <t>7,15</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>Coppersmiths Brewery</t>
+  </si>
+  <si>
+    <t>3,65</t>
+  </si>
+  <si>
+    <t>Chang Classic Beer</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Cosmos brewery</t>
+  </si>
+  <si>
+    <t>Sierra Nevada</t>
+  </si>
+  <si>
+    <t>5,65</t>
+  </si>
+  <si>
+    <t>Nils Oscar Trooper</t>
+  </si>
+  <si>
+    <t>6,18</t>
   </si>
 </sst>
 </file>
@@ -667,7 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,7 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1049,7 +1087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,11 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F3E68-7697-4FE2-8F6A-A1553C76AAD6}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1098,7 +1136,7 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1227,7 +1265,7 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" s="2">
@@ -1250,7 +1288,7 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" t="s">
         <v>133</v>
       </c>
       <c r="I9" s="2">
@@ -1270,7 +1308,7 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" t="s">
         <v>134</v>
       </c>
       <c r="I10" s="2">
@@ -1290,7 +1328,7 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" s="2">
@@ -1310,7 +1348,7 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" t="s">
         <v>135</v>
       </c>
       <c r="I12" s="2">
@@ -1333,7 +1371,7 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" t="s">
         <v>136</v>
       </c>
       <c r="I14" s="2">
@@ -1356,7 +1394,7 @@
       <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" t="s">
         <v>137</v>
       </c>
       <c r="I15" s="2">
@@ -1382,7 +1420,7 @@
       <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" t="s">
         <v>127</v>
       </c>
       <c r="I16" s="2">
@@ -1408,7 +1446,7 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" t="s">
         <v>139</v>
       </c>
       <c r="I17" s="2">
@@ -1428,7 +1466,7 @@
       <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" t="s">
         <v>139</v>
       </c>
       <c r="I18" s="2">
@@ -1445,7 +1483,7 @@
       <c r="N19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1462,7 +1500,7 @@
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" t="s">
         <v>141</v>
       </c>
       <c r="I20" s="2">
@@ -1485,7 +1523,7 @@
       <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" s="2">
@@ -1505,7 +1543,7 @@
       <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" t="s">
         <v>139</v>
       </c>
       <c r="I22" s="2">
@@ -1525,7 +1563,7 @@
       <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" t="s">
         <v>143</v>
       </c>
       <c r="I23" s="2">
@@ -1823,7 +1861,7 @@
       <c r="F42" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H42" t="s">
@@ -1849,7 +1887,7 @@
       <c r="F43" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H43" t="s">
@@ -1872,7 +1910,7 @@
       <c r="F44" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H44" t="s">
@@ -1901,7 +1939,7 @@
       <c r="F46" t="s">
         <v>118</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H46" t="s">
@@ -1933,7 +1971,7 @@
       <c r="F47" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>110</v>
       </c>
       <c r="H47" t="s">
@@ -1962,7 +2000,7 @@
       <c r="F48" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H48" t="s">
@@ -1973,7 +2011,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.5">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B50" t="s">
@@ -1988,10 +2026,10 @@
       <c r="E50">
         <v>330</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>164</v>
       </c>
       <c r="H50" t="s">
@@ -2023,7 +2061,7 @@
       <c r="F51" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>165</v>
       </c>
       <c r="H51" t="s">
@@ -2034,7 +2072,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="42.75">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B52" t="s">
@@ -2049,10 +2087,10 @@
       <c r="E52">
         <v>500</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>166</v>
       </c>
       <c r="H52" t="s">
@@ -2063,7 +2101,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B54" t="s">
@@ -2097,7 +2135,7 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B56" t="s">
@@ -2137,6 +2175,83 @@
       </c>
       <c r="I57" s="2">
         <v>44867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59">
+        <v>330</v>
+      </c>
+      <c r="F59" t="s">
+        <v>185</v>
+      </c>
+      <c r="H59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="2">
+        <v>44951</v>
+      </c>
+      <c r="J59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61" s="2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="2">
+        <v>44951</v>
       </c>
     </row>
   </sheetData>
